--- a/evaluation/5.4_evaluation_build_time_update_number_of_functions.xlsx
+++ b/evaluation/5.4_evaluation_build_time_update_number_of_functions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Prepare for Diagram(s)</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>#number of records</t>
+  </si>
+  <si>
+    <t>xyz (s)</t>
   </si>
 </sst>
 </file>
@@ -126,10 +129,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -444,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L255"/>
+  <dimension ref="A1:Y255"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17:Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,20 +467,20 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="A4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -890,23 +893,37 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="N17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -951,8 +968,51 @@
         <f t="shared" si="3"/>
         <v>2.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N18" s="4">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <f t="array" ref="P18">ROUND(SUM(($A$31:$A$1000=$A18)*POWER( C$31:C$1000 - C18*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.75</v>
+      </c>
+      <c r="Q18">
+        <f t="array" ref="Q18">ROUND(SUM(($A$31:$A$1000=$A18)*POWER( D$31:D$1000 - D18*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R18">
+        <f t="array" ref="R18">ROUND(SUM(($A$31:$A$1000=$A18)*POWER( E$31:E$1000 - E18*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="S18">
+        <f t="array" ref="S18">ROUND(SUM(($A$31:$A$1000=$A18)*POWER( F$31:F$1000 - F18*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="T18">
+        <f t="array" ref="T18">ROUND(SUM(($A$31:$A$1000=$A18)*POWER( G$31:G$1000 - G18*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.93</v>
+      </c>
+      <c r="U18">
+        <f t="array" ref="U18">ROUND(SUM(($A$31:$A$1000=$A18)*POWER( H$31:H$1000 - H18*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="V18">
+        <f t="array" ref="V18">ROUND(SUM(($A$31:$A$1000=$A18)*POWER( I$31:I$1000 - I18*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W18">
+        <f t="array" ref="W18">ROUND(SUM(($A$31:$A$1000=$A18)*POWER( J$31:J$1000 - J18*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <f t="array" ref="X18">ROUND(SUM(($A$31:$A$1000=$A18)*POWER( K$31:K$1000 - K18*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.09</v>
+      </c>
+      <c r="Y18">
+        <f t="array" ref="Y18">ROUND(SUM(($A$31:$A$1000=$A18)*POWER( L$31:L$1000 - L18*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>2</v>
       </c>
@@ -997,8 +1057,51 @@
         <f>ROUND(SUMIF($A$31:$A$1000,$A19,L$31:L$1000)/$B$1/1000,1)</f>
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N19" s="4">
+        <v>2</v>
+      </c>
+      <c r="P19">
+        <f t="array" ref="P19">ROUND(SUM(($A$31:$A$1000=$A19)*POWER( C$31:C$1000 - C19*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <f t="array" ref="Q19">ROUND(SUM(($A$31:$A$1000=$A19)*POWER( D$31:D$1000 - D19*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="R19">
+        <f t="array" ref="R19">ROUND(SUM(($A$31:$A$1000=$A19)*POWER( E$31:E$1000 - E19*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="S19">
+        <f t="array" ref="S19">ROUND(SUM(($A$31:$A$1000=$A19)*POWER( F$31:F$1000 - F19*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="T19">
+        <f t="array" ref="T19">ROUND(SUM(($A$31:$A$1000=$A19)*POWER( G$31:G$1000 - G19*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.9</v>
+      </c>
+      <c r="U19">
+        <f t="array" ref="U19">ROUND(SUM(($A$31:$A$1000=$A19)*POWER( H$31:H$1000 - H19*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="V19">
+        <f t="array" ref="V19">ROUND(SUM(($A$31:$A$1000=$A19)*POWER( I$31:I$1000 - I19*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="W19">
+        <f t="array" ref="W19">ROUND(SUM(($A$31:$A$1000=$A19)*POWER( J$31:J$1000 - J19*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <f t="array" ref="X19">ROUND(SUM(($A$31:$A$1000=$A19)*POWER( K$31:K$1000 - K19*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y19">
+        <f t="array" ref="Y19">ROUND(SUM(($A$31:$A$1000=$A19)*POWER( L$31:L$1000 - L19*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>5</v>
       </c>
@@ -1043,8 +1146,51 @@
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N20" s="4">
+        <v>5</v>
+      </c>
+      <c r="P20">
+        <f t="array" ref="P20">ROUND(SUM(($A$31:$A$1000=$A20)*POWER( C$31:C$1000 - C20*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>1.25</v>
+      </c>
+      <c r="Q20">
+        <f t="array" ref="Q20">ROUND(SUM(($A$31:$A$1000=$A20)*POWER( D$31:D$1000 - D20*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R20">
+        <f t="array" ref="R20">ROUND(SUM(($A$31:$A$1000=$A20)*POWER( E$31:E$1000 - E20*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="S20">
+        <f t="array" ref="S20">ROUND(SUM(($A$31:$A$1000=$A20)*POWER( F$31:F$1000 - F20*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.09</v>
+      </c>
+      <c r="T20">
+        <f t="array" ref="T20">ROUND(SUM(($A$31:$A$1000=$A20)*POWER( G$31:G$1000 - G20*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.74</v>
+      </c>
+      <c r="U20">
+        <f t="array" ref="U20">ROUND(SUM(($A$31:$A$1000=$A20)*POWER( H$31:H$1000 - H20*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.24</v>
+      </c>
+      <c r="V20">
+        <f t="array" ref="V20">ROUND(SUM(($A$31:$A$1000=$A20)*POWER( I$31:I$1000 - I20*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.24</v>
+      </c>
+      <c r="W20">
+        <f t="array" ref="W20">ROUND(SUM(($A$31:$A$1000=$A20)*POWER( J$31:J$1000 - J20*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <f t="array" ref="X20">ROUND(SUM(($A$31:$A$1000=$A20)*POWER( K$31:K$1000 - K20*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="Y20">
+        <f t="array" ref="Y20">ROUND(SUM(($A$31:$A$1000=$A20)*POWER( L$31:L$1000 - L20*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>10</v>
       </c>
@@ -1089,8 +1235,51 @@
         <f t="shared" si="4"/>
         <v>2.9</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N21" s="4">
+        <v>10</v>
+      </c>
+      <c r="P21">
+        <f t="array" ref="P21">ROUND(SUM(($A$31:$A$1000=$A21)*POWER( C$31:C$1000 - C21*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>1.63</v>
+      </c>
+      <c r="Q21">
+        <f t="array" ref="Q21">ROUND(SUM(($A$31:$A$1000=$A21)*POWER( D$31:D$1000 - D21*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="R21">
+        <f t="array" ref="R21">ROUND(SUM(($A$31:$A$1000=$A21)*POWER( E$31:E$1000 - E21*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="S21">
+        <f t="array" ref="S21">ROUND(SUM(($A$31:$A$1000=$A21)*POWER( F$31:F$1000 - F21*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.09</v>
+      </c>
+      <c r="T21">
+        <f t="array" ref="T21">ROUND(SUM(($A$31:$A$1000=$A21)*POWER( G$31:G$1000 - G21*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.67</v>
+      </c>
+      <c r="U21">
+        <f t="array" ref="U21">ROUND(SUM(($A$31:$A$1000=$A21)*POWER( H$31:H$1000 - H21*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.83</v>
+      </c>
+      <c r="V21">
+        <f t="array" ref="V21">ROUND(SUM(($A$31:$A$1000=$A21)*POWER( I$31:I$1000 - I21*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.83</v>
+      </c>
+      <c r="W21">
+        <f t="array" ref="W21">ROUND(SUM(($A$31:$A$1000=$A21)*POWER( J$31:J$1000 - J21*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <f t="array" ref="X21">ROUND(SUM(($A$31:$A$1000=$A21)*POWER( K$31:K$1000 - K21*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.1</v>
+      </c>
+      <c r="Y21">
+        <f t="array" ref="Y21">ROUND(SUM(($A$31:$A$1000=$A21)*POWER( L$31:L$1000 - L21*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -1135,8 +1324,51 @@
         <f t="shared" si="4"/>
         <v>5.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N22" s="4">
+        <v>20</v>
+      </c>
+      <c r="P22">
+        <f t="array" ref="P22">ROUND(SUM(($A$31:$A$1000=$A22)*POWER( C$31:C$1000 - C22*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>1.46</v>
+      </c>
+      <c r="Q22">
+        <f t="array" ref="Q22">ROUND(SUM(($A$31:$A$1000=$A22)*POWER( D$31:D$1000 - D22*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="R22">
+        <f t="array" ref="R22">ROUND(SUM(($A$31:$A$1000=$A22)*POWER( E$31:E$1000 - E22*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="S22">
+        <f t="array" ref="S22">ROUND(SUM(($A$31:$A$1000=$A22)*POWER( F$31:F$1000 - F22*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T22">
+        <f t="array" ref="T22">ROUND(SUM(($A$31:$A$1000=$A22)*POWER( G$31:G$1000 - G22*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.54</v>
+      </c>
+      <c r="U22">
+        <f t="array" ref="U22">ROUND(SUM(($A$31:$A$1000=$A22)*POWER( H$31:H$1000 - H22*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.7</v>
+      </c>
+      <c r="V22">
+        <f t="array" ref="V22">ROUND(SUM(($A$31:$A$1000=$A22)*POWER( I$31:I$1000 - I22*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.7</v>
+      </c>
+      <c r="W22">
+        <f t="array" ref="W22">ROUND(SUM(($A$31:$A$1000=$A22)*POWER( J$31:J$1000 - J22*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <f t="array" ref="X22">ROUND(SUM(($A$31:$A$1000=$A22)*POWER( K$31:K$1000 - K22*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.09</v>
+      </c>
+      <c r="Y22">
+        <f t="array" ref="Y22">ROUND(SUM(($A$31:$A$1000=$A22)*POWER( L$31:L$1000 - L22*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>40</v>
       </c>
@@ -1181,8 +1413,51 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N23" s="4">
+        <v>40</v>
+      </c>
+      <c r="P23">
+        <f t="array" ref="P23">ROUND(SUM(($A$31:$A$1000=$A23)*POWER( C$31:C$1000 - C23*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>5.71</v>
+      </c>
+      <c r="Q23">
+        <f t="array" ref="Q23">ROUND(SUM(($A$31:$A$1000=$A23)*POWER( D$31:D$1000 - D23*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.06</v>
+      </c>
+      <c r="R23">
+        <f t="array" ref="R23">ROUND(SUM(($A$31:$A$1000=$A23)*POWER( E$31:E$1000 - E23*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="S23">
+        <f t="array" ref="S23">ROUND(SUM(($A$31:$A$1000=$A23)*POWER( F$31:F$1000 - F23*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.09</v>
+      </c>
+      <c r="T23">
+        <f t="array" ref="T23">ROUND(SUM(($A$31:$A$1000=$A23)*POWER( G$31:G$1000 - G23*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.67</v>
+      </c>
+      <c r="U23">
+        <f t="array" ref="U23">ROUND(SUM(($A$31:$A$1000=$A23)*POWER( H$31:H$1000 - H23*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>4.93</v>
+      </c>
+      <c r="V23">
+        <f t="array" ref="V23">ROUND(SUM(($A$31:$A$1000=$A23)*POWER( I$31:I$1000 - I23*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>4.93</v>
+      </c>
+      <c r="W23">
+        <f t="array" ref="W23">ROUND(SUM(($A$31:$A$1000=$A23)*POWER( J$31:J$1000 - J23*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <f t="array" ref="X23">ROUND(SUM(($A$31:$A$1000=$A23)*POWER( K$31:K$1000 - K23*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="Y23">
+        <f t="array" ref="Y23">ROUND(SUM(($A$31:$A$1000=$A23)*POWER( L$31:L$1000 - L23*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>60</v>
       </c>
@@ -1227,8 +1502,51 @@
         <f t="shared" si="4"/>
         <v>9.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N24" s="4">
+        <v>60</v>
+      </c>
+      <c r="P24">
+        <f t="array" ref="P24">ROUND(SUM(($A$31:$A$1000=$A24)*POWER( C$31:C$1000 - C24*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>3.69</v>
+      </c>
+      <c r="Q24">
+        <f t="array" ref="Q24">ROUND(SUM(($A$31:$A$1000=$A24)*POWER( D$31:D$1000 - D24*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="R24">
+        <f t="array" ref="R24">ROUND(SUM(($A$31:$A$1000=$A24)*POWER( E$31:E$1000 - E24*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.1</v>
+      </c>
+      <c r="S24">
+        <f t="array" ref="S24">ROUND(SUM(($A$31:$A$1000=$A24)*POWER( F$31:F$1000 - F24*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.18</v>
+      </c>
+      <c r="T24">
+        <f t="array" ref="T24">ROUND(SUM(($A$31:$A$1000=$A24)*POWER( G$31:G$1000 - G24*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.65</v>
+      </c>
+      <c r="U24">
+        <f t="array" ref="U24">ROUND(SUM(($A$31:$A$1000=$A24)*POWER( H$31:H$1000 - H24*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>2.94</v>
+      </c>
+      <c r="V24">
+        <f t="array" ref="V24">ROUND(SUM(($A$31:$A$1000=$A24)*POWER( I$31:I$1000 - I24*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>2.94</v>
+      </c>
+      <c r="W24">
+        <f t="array" ref="W24">ROUND(SUM(($A$31:$A$1000=$A24)*POWER( J$31:J$1000 - J24*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <f t="array" ref="X24">ROUND(SUM(($A$31:$A$1000=$A24)*POWER( K$31:K$1000 - K24*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="Y24">
+        <f t="array" ref="Y24">ROUND(SUM(($A$31:$A$1000=$A24)*POWER( L$31:L$1000 - L24*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>80</v>
       </c>
@@ -1273,8 +1591,51 @@
         <f t="shared" si="4"/>
         <v>11.1</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N25" s="4">
+        <v>80</v>
+      </c>
+      <c r="P25">
+        <f t="array" ref="P25">ROUND(SUM(($A$31:$A$1000=$A25)*POWER( C$31:C$1000 - C25*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>6.98</v>
+      </c>
+      <c r="Q25">
+        <f t="array" ref="Q25">ROUND(SUM(($A$31:$A$1000=$A25)*POWER( D$31:D$1000 - D25*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="R25">
+        <f t="array" ref="R25">ROUND(SUM(($A$31:$A$1000=$A25)*POWER( E$31:E$1000 - E25*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S25">
+        <f t="array" ref="S25">ROUND(SUM(($A$31:$A$1000=$A25)*POWER( F$31:F$1000 - F25*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.11</v>
+      </c>
+      <c r="T25">
+        <f t="array" ref="T25">ROUND(SUM(($A$31:$A$1000=$A25)*POWER( G$31:G$1000 - G25*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.65</v>
+      </c>
+      <c r="U25">
+        <f t="array" ref="U25">ROUND(SUM(($A$31:$A$1000=$A25)*POWER( H$31:H$1000 - H25*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>4.76</v>
+      </c>
+      <c r="V25">
+        <f t="array" ref="V25">ROUND(SUM(($A$31:$A$1000=$A25)*POWER( I$31:I$1000 - I25*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>4.76</v>
+      </c>
+      <c r="W25">
+        <f t="array" ref="W25">ROUND(SUM(($A$31:$A$1000=$A25)*POWER( J$31:J$1000 - J25*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <f t="array" ref="X25">ROUND(SUM(($A$31:$A$1000=$A25)*POWER( K$31:K$1000 - K25*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="Y25">
+        <f t="array" ref="Y25">ROUND(SUM(($A$31:$A$1000=$A25)*POWER( L$31:L$1000 - L25*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>100</v>
       </c>
@@ -1319,8 +1680,51 @@
         <f t="shared" si="4"/>
         <v>13.8</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N26" s="4">
+        <v>100</v>
+      </c>
+      <c r="P26">
+        <f t="array" ref="P26">ROUND(SUM(($A$31:$A$1000=$A26)*POWER( C$31:C$1000 - C26*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>4.79</v>
+      </c>
+      <c r="Q26">
+        <f t="array" ref="Q26">ROUND(SUM(($A$31:$A$1000=$A26)*POWER( D$31:D$1000 - D26*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.06</v>
+      </c>
+      <c r="R26">
+        <f t="array" ref="R26">ROUND(SUM(($A$31:$A$1000=$A26)*POWER( E$31:E$1000 - E26*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="S26">
+        <f t="array" ref="S26">ROUND(SUM(($A$31:$A$1000=$A26)*POWER( F$31:F$1000 - F26*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="T26">
+        <f t="array" ref="T26">ROUND(SUM(($A$31:$A$1000=$A26)*POWER( G$31:G$1000 - G26*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.94</v>
+      </c>
+      <c r="U26">
+        <f t="array" ref="U26">ROUND(SUM(($A$31:$A$1000=$A26)*POWER( H$31:H$1000 - H26*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>2.02</v>
+      </c>
+      <c r="V26">
+        <f t="array" ref="V26">ROUND(SUM(($A$31:$A$1000=$A26)*POWER( I$31:I$1000 - I26*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>2.02</v>
+      </c>
+      <c r="W26">
+        <f t="array" ref="W26">ROUND(SUM(($A$31:$A$1000=$A26)*POWER( J$31:J$1000 - J26*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <f t="array" ref="X26">ROUND(SUM(($A$31:$A$1000=$A26)*POWER( K$31:K$1000 - K26*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="Y26">
+        <f t="array" ref="Y26">ROUND(SUM(($A$31:$A$1000=$A26)*POWER( L$31:L$1000 - L26*1000,2) )/($B$1*POWER(1000,2)),2)</f>
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -1355,7 +1759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1392,7 +1796,7 @@
         <v>2547</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -9311,39 +9715,39 @@
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A246" s="6">
+      <c r="A246" s="5">
         <v>100</v>
       </c>
-      <c r="B246" s="6"/>
-      <c r="C246" s="6">
+      <c r="B246" s="5"/>
+      <c r="C246" s="5">
         <v>198283</v>
       </c>
-      <c r="D246" s="6">
+      <c r="D246" s="5">
         <v>1546</v>
       </c>
-      <c r="E246" s="6">
+      <c r="E246" s="5">
         <v>9008</v>
       </c>
-      <c r="F246" s="6">
+      <c r="F246" s="5">
         <v>10607</v>
       </c>
-      <c r="G246" s="6">
+      <c r="G246" s="5">
         <v>8538</v>
       </c>
-      <c r="H246" s="6">
+      <c r="H246" s="5">
         <v>155189</v>
       </c>
       <c r="I246">
         <f t="shared" si="11"/>
         <v>155189</v>
       </c>
-      <c r="J246" s="6">
-        <v>0</v>
-      </c>
-      <c r="K246" s="6">
+      <c r="J246" s="5">
+        <v>0</v>
+      </c>
+      <c r="K246" s="5">
         <v>1150</v>
       </c>
-      <c r="L246" s="6">
+      <c r="L246" s="5">
         <f t="shared" si="12"/>
         <v>12245</v>
       </c>
@@ -9683,10 +10087,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A30:L30"/>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="A17:L17"/>
+    <mergeCell ref="N17:Y17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>